--- a/Bike Sales Project.xlsx
+++ b/Bike Sales Project.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\91950\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4B18A1-FA43-49A0-AFF6-E6B78273FE4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C489DF-1FE7-4B5E-BD9F-CAD6BD23274D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="working sheet" sheetId="4" r:id="rId1"/>
+    <sheet name="Sales data" sheetId="4" r:id="rId1"/>
     <sheet name="pivot table" sheetId="3" r:id="rId2"/>
     <sheet name="Dashboard" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'working sheet'!$A$1:$R$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Sales data'!$A$1:$R$1</definedName>
     <definedName name="Slicer_Education">#N/A</definedName>
     <definedName name="Slicer_Marrital_Status">#N/A</definedName>
     <definedName name="Slicer_Region">#N/A</definedName>
@@ -201,8 +201,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="&quot;₹&quot;\ #,##0"/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -698,11 +698,11 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="42" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -13639,7 +13639,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="UJJWAL KUMAR" refreshedDate="45711.11737083333" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="1000" xr:uid="{32714503-7E26-409C-917C-9880FF18DBC9}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:N1001" sheet="working sheet"/>
+    <worksheetSource ref="A1:N1001" sheet="Sales data"/>
   </cacheSource>
   <cacheFields count="14">
     <cacheField name="ID" numFmtId="0">
@@ -13657,7 +13657,7 @@
         <s v="Male"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Income" numFmtId="166">
+    <cacheField name="Income" numFmtId="165">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="10000" maxValue="170000"/>
     </cacheField>
     <cacheField name="Children" numFmtId="0">
@@ -29795,7 +29795,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
@@ -30200,7 +30200,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
@@ -30350,7 +30350,7 @@
       </items>
     </pivotField>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="166" showAll="0"/>
+    <pivotField numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
@@ -30515,7 +30515,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField dataField="1" numFmtId="166" showAll="0"/>
+    <pivotField dataField="1" numFmtId="165" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0">
       <items count="6">
@@ -30578,7 +30578,7 @@
     </i>
   </colItems>
   <dataFields count="1">
-    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="166"/>
+    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="165"/>
   </dataFields>
   <chartFormats count="6">
     <chartFormat chart="0" format="2" series="1">
@@ -31029,7 +31029,7 @@
   <dimension ref="A1:R1001"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
